--- a/Experiences/ExperimentsMAJlundisoir.xlsx
+++ b/Experiences/ExperimentsMAJlundisoir.xlsx
@@ -77,33 +77,9 @@
     <t>Dot piercing</t>
   </si>
   <si>
-    <t>Dose factor</t>
-  </si>
-  <si>
-    <t>Total charge (pC)</t>
-  </si>
-  <si>
     <t>Min to pierce</t>
   </si>
   <si>
-    <t>Total charge (pC)3</t>
-  </si>
-  <si>
-    <t>Dose factor2</t>
-  </si>
-  <si>
-    <t>Dose factor3</t>
-  </si>
-  <si>
-    <t>Dose factor4</t>
-  </si>
-  <si>
-    <t>Dose factor5</t>
-  </si>
-  <si>
-    <t>Dose factor6</t>
-  </si>
-  <si>
     <t>Line piercing</t>
   </si>
   <si>
@@ -155,18 +131,6 @@
     <t>20μm – 6.0 pA (8)</t>
   </si>
   <si>
-    <t>Total charge (μC)4</t>
-  </si>
-  <si>
-    <t>Total charge (μC)5</t>
-  </si>
-  <si>
-    <t>Total charge (μC)6</t>
-  </si>
-  <si>
-    <t>Total charge (μC)7</t>
-  </si>
-  <si>
     <t>Coating thickness</t>
   </si>
   <si>
@@ -176,15 +140,6 @@
     <t>Multiple fall best doses</t>
   </si>
   <si>
-    <t>Dot (pC)</t>
-  </si>
-  <si>
-    <t>Line (μC/cm)</t>
-  </si>
-  <si>
-    <t>Area (μC/cm^2)</t>
-  </si>
-  <si>
     <t>High dose for lines</t>
   </si>
   <si>
@@ -254,9 +209,6 @@
     <t>2,41 &lt; x &lt; 2,81</t>
   </si>
   <si>
-    <t># experience</t>
-  </si>
-  <si>
     <t>Resolution dots</t>
   </si>
   <si>
@@ -305,14 +257,172 @@
     <t>good experience for resolution</t>
   </si>
   <si>
-    <t>Dots multiple fall beware for interpretation !</t>
+    <t># Exp</t>
+  </si>
+  <si>
+    <t>Dots multiple fal: beware for interpretation !</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>μC/cm^2</t>
+    </r>
+  </si>
+  <si>
+    <t>Min Dot DF</t>
+  </si>
+  <si>
+    <t>Max Dot DF</t>
+  </si>
+  <si>
+    <t>Min Line DF</t>
+  </si>
+  <si>
+    <t>Max Line DF</t>
+  </si>
+  <si>
+    <t>Min Area DF</t>
+  </si>
+  <si>
+    <t>Max Area DF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total22 charge </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total21 charge </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total12 charge </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total11 charge </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Totale charge32 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>μC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total31 charge </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>μC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> μC/cm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dot         </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pC</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,8 +502,21 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14.4"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14.4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE2D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +727,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -651,12 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,9 +775,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,18 +799,15 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,7 +833,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,28 +845,13 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -777,68 +867,85 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="6" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,7 +968,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -878,27 +985,30 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFBBBBAD"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFBBBBAD"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -923,19 +1033,335 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
+        <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -957,7 +1383,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -968,12 +1394,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -992,84 +1414,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1090,7 +1445,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1101,12 +1456,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1128,7 +1479,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1139,12 +1490,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1163,11 +1510,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1178,12 +1524,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1205,7 +1547,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1216,12 +1558,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1240,11 +1578,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1255,12 +1592,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1282,7 +1615,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1293,12 +1626,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1317,11 +1646,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1332,12 +1660,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1359,7 +1683,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1370,12 +1694,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1394,11 +1714,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1409,12 +1728,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1436,7 +1751,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1447,12 +1762,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1471,11 +1782,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1486,12 +1796,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1513,7 +1819,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1524,12 +1830,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1548,11 +1850,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1563,12 +1864,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1590,7 +1887,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1601,12 +1898,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1625,6 +1918,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1633,12 +1932,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1660,7 +1955,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1671,12 +1966,8 @@
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1698,11 +1989,11 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
@@ -1712,9 +2003,9 @@
         <top style="thin">
           <color rgb="FFBBBBAD"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1733,8 +2024,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
@@ -1744,9 +2041,9 @@
         <top style="thin">
           <color rgb="FFBBBBAD"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1761,10 +2058,16 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1797,8 +2100,15 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
@@ -1812,6 +2122,62 @@
           <color rgb="FFBBBBAD"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1829,6 +2195,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1861,6 +2233,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1893,6 +2271,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1925,6 +2310,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1957,6 +2348,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1989,6 +2387,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2021,6 +2425,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2028,6 +2433,20 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2040,13 +2459,646 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14.4"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor theme="9"/>
         </patternFill>
@@ -2059,82 +3111,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:AD33" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A3:AD33">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2016" month="6" day="30" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A9:AB33">
-    <sortCondition ref="A3:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:AD33" dataDxfId="76">
+  <autoFilter ref="A3:AD33"/>
+  <sortState ref="A4:AD33">
+    <sortCondition ref="B3:B33"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="27" name="# experience" dataDxfId="3"/>
-    <tableColumn id="1" name="Date" dataDxfId="44"/>
-    <tableColumn id="2" name="Sample" dataDxfId="43"/>
-    <tableColumn id="3" name="Coating" dataDxfId="42"/>
-    <tableColumn id="4" name="Coating thickness" dataDxfId="41"/>
-    <tableColumn id="5" name="Design" dataDxfId="40"/>
-    <tableColumn id="6" name="Design dose factor" dataDxfId="39"/>
-    <tableColumn id="7" name="Beam" dataDxfId="38"/>
-    <tableColumn id="8" name="Loop factor" dataDxfId="37"/>
-    <tableColumn id="9" name="Current (pA)" dataDxfId="36"/>
-    <tableColumn id="10" name="Dot (pC)" dataDxfId="35"/>
-    <tableColumn id="11" name="Line (μC/cm)" dataDxfId="34"/>
-    <tableColumn id="12" name="Area (μC/cm^2)" dataDxfId="2"/>
-    <tableColumn id="13" name="Area/Line step size" dataDxfId="33"/>
-    <tableColumn id="14" name="Dose factor" dataDxfId="32"/>
-    <tableColumn id="15" name="Total charge (pC)" dataDxfId="31">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</calculatedColumnFormula>
+    <tableColumn id="27" name="# Exp" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="0" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Sample" dataDxfId="75" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Coating" dataDxfId="74" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Coating thickness" dataDxfId="73" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Design" dataDxfId="72" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Design dose factor" dataDxfId="71" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Beam" dataDxfId="70" totalsRowDxfId="9"/>
+    <tableColumn id="8" name="Loop factor" dataDxfId="69" totalsRowDxfId="10"/>
+    <tableColumn id="9" name="Current (pA)" dataDxfId="68" totalsRowDxfId="11"/>
+    <tableColumn id="10" name="Dot         pC" dataDxfId="67" totalsRowDxfId="12"/>
+    <tableColumn id="11" name="Line μC/cm" dataDxfId="66" totalsRowDxfId="13"/>
+    <tableColumn id="12" name="Area μC/cm^2" dataDxfId="34" totalsRowDxfId="14"/>
+    <tableColumn id="13" name="Area/Line step size" dataDxfId="65" totalsRowDxfId="15"/>
+    <tableColumn id="14" name="Min Dot DF" dataDxfId="64" totalsRowDxfId="16"/>
+    <tableColumn id="15" name="Total11 charge pC" dataDxfId="63" totalsRowDxfId="17">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Dose factor2" dataDxfId="30"/>
-    <tableColumn id="17" name="Total charge (pC)3" dataDxfId="29">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</calculatedColumnFormula>
+    <tableColumn id="16" name="Max Dot DF" dataDxfId="62" totalsRowDxfId="18"/>
+    <tableColumn id="17" name="Total12 charge pC" dataDxfId="61" totalsRowDxfId="19">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Dose factor3" dataDxfId="28"/>
-    <tableColumn id="19" name="Total charge (μC)4" dataDxfId="27">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</calculatedColumnFormula>
+    <tableColumn id="18" name="Min Line DF" dataDxfId="60" totalsRowDxfId="20"/>
+    <tableColumn id="19" name="Total21 charge pC" dataDxfId="59" totalsRowDxfId="21">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Dose factor4" dataDxfId="26"/>
-    <tableColumn id="21" name="Total charge (μC)5" dataDxfId="25">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</calculatedColumnFormula>
+    <tableColumn id="20" name="Max Line DF" dataDxfId="58" totalsRowDxfId="22"/>
+    <tableColumn id="21" name="Total22 charge pC" dataDxfId="57" totalsRowDxfId="23">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Dose factor5" dataDxfId="24"/>
-    <tableColumn id="23" name="Total charge (μC)6" dataDxfId="23">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</calculatedColumnFormula>
+    <tableColumn id="22" name="Min Area DF" dataDxfId="56" totalsRowDxfId="24"/>
+    <tableColumn id="23" name="Total31 charge μC" dataDxfId="55" totalsRowDxfId="25">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Dose factor6" dataDxfId="22"/>
-    <tableColumn id="25" name="Total charge (μC)7" dataDxfId="21">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</calculatedColumnFormula>
+    <tableColumn id="24" name="Max Area DF" dataDxfId="54" totalsRowDxfId="26"/>
+    <tableColumn id="25" name="Totale charge32 μC" dataDxfId="53" totalsRowDxfId="27">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Total hole size" dataDxfId="20"/>
-    <tableColumn id="28" name="Step between dots" dataDxfId="1"/>
-    <tableColumn id="29" name="Charge" dataDxfId="0"/>
-    <tableColumn id="30" name="Results" dataDxfId="19"/>
+    <tableColumn id="26" name="Total hole size" dataDxfId="52" totalsRowDxfId="28"/>
+    <tableColumn id="28" name="Step between dots" dataDxfId="33" totalsRowDxfId="29"/>
+    <tableColumn id="29" name="Charge" dataDxfId="32" totalsRowDxfId="30"/>
+    <tableColumn id="30" name="Results" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="31"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M15" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:M15"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Beam" dataDxfId="16"/>
-    <tableColumn id="14" name="Design" dataDxfId="15"/>
-    <tableColumn id="2" name="loops" dataDxfId="14"/>
-    <tableColumn id="3" name="min charge for dot piercing (pC)" dataDxfId="13"/>
-    <tableColumn id="4" name="min charge for line piercing (μC)" dataDxfId="12"/>
-    <tableColumn id="5" name="min charge for area piercing (μC)" dataDxfId="11"/>
-    <tableColumn id="6" name="Comments" dataDxfId="10"/>
-    <tableColumn id="7" name="Colonne7" dataDxfId="9"/>
-    <tableColumn id="8" name="Colonne8" dataDxfId="8"/>
-    <tableColumn id="9" name="Colonne9" dataDxfId="7"/>
-    <tableColumn id="10" name="Colonne10" dataDxfId="6"/>
-    <tableColumn id="11" name="Colonne11" dataDxfId="5"/>
-    <tableColumn id="12" name="Colonne12" dataDxfId="4"/>
+    <tableColumn id="1" name="Beam" dataDxfId="48"/>
+    <tableColumn id="14" name="Design" dataDxfId="47"/>
+    <tableColumn id="2" name="loops" dataDxfId="46"/>
+    <tableColumn id="3" name="min charge for dot piercing (pC)" dataDxfId="45"/>
+    <tableColumn id="4" name="min charge for line piercing (μC)" dataDxfId="44"/>
+    <tableColumn id="5" name="min charge for area piercing (μC)" dataDxfId="43"/>
+    <tableColumn id="6" name="Comments" dataDxfId="42"/>
+    <tableColumn id="7" name="Colonne7" dataDxfId="41"/>
+    <tableColumn id="8" name="Colonne8" dataDxfId="40"/>
+    <tableColumn id="9" name="Colonne9" dataDxfId="39"/>
+    <tableColumn id="10" name="Colonne10" dataDxfId="38"/>
+    <tableColumn id="11" name="Colonne11" dataDxfId="37"/>
+    <tableColumn id="12" name="Colonne12" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2464,34 +3510,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="57" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="48" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" customWidth="1"/>
     <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -2502,83 +3550,84 @@
     <col min="30" max="30" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="31" customHeight="1">
-      <c r="H1" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="79"/>
+    <row r="1" spans="1:30" ht="24" customHeight="1">
+      <c r="H1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="62"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AB1" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="65"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AB1" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="57"/>
     </row>
-    <row r="2" spans="1:30" ht="41" customHeight="1">
-      <c r="K2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="62" t="s">
+    <row r="2" spans="1:30" ht="26" customHeight="1">
+      <c r="F2" s="69"/>
+      <c r="K2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="66"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
     </row>
-    <row r="3" spans="1:30" ht="54">
-      <c r="A3" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:30" ht="63" customHeight="1">
+      <c r="A3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2588,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -2606,252 +3655,252 @@
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>80</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA3" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" s="63" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="AA3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="30" hidden="1">
-      <c r="A4" s="42">
+    <row r="4" spans="1:30" ht="30">
+      <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="72">
         <v>42545</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="F4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="14">
         <v>1</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="16">
+        <v>24</v>
+      </c>
+      <c r="I4" s="14">
         <v>20</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>6.8120000000000003</v>
       </c>
       <c r="K4" s="13">
         <v>0.10044</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>1000</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="46">
         <v>1000</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="14">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="O4" s="13">
         <v>1.2</v>
       </c>
-      <c r="P4" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P4" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.4105599999999998</v>
       </c>
       <c r="Q4" s="13">
         <v>1.4</v>
       </c>
-      <c r="R4" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R4" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.8123199999999997</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U4" s="13"/>
-      <c r="V4" s="18"/>
+      <c r="V4" s="16"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13">
         <v>10</v>
       </c>
       <c r="Z4" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>640</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
-      <c r="AD4" s="17"/>
+      <c r="AD4" s="15"/>
     </row>
-    <row r="5" spans="1:30" s="22" customFormat="1" ht="30" hidden="1">
-      <c r="A5" s="45">
+    <row r="5" spans="1:30" s="19" customFormat="1" ht="30">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="73">
         <v>42548</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="C5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17">
         <v>5</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>2.0087999999999999</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="56">
+      <c r="L5" s="17"/>
+      <c r="M5" s="47">
         <v>20000</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="17">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="23">
         <v>2.4</v>
       </c>
-      <c r="P5" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>4.8211199999999996</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="20">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
         <v>10</v>
       </c>
-      <c r="X5" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+      <c r="X5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>640</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21" t="s">
-        <v>60</v>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="22" customFormat="1" ht="45" hidden="1">
-      <c r="A6" s="43">
+    <row r="6" spans="1:30" s="19" customFormat="1" ht="45">
+      <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="74">
         <v>42549</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G6" s="13">
         <v>1</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13">
         <v>1</v>
@@ -2865,156 +3914,156 @@
       <c r="L6" s="13">
         <v>20000</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="68">
         <v>1.6</v>
       </c>
-      <c r="P6" s="27">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P6" s="68">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>3.21408</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="68">
         <v>1.8</v>
       </c>
-      <c r="R6" s="27">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R6" s="68">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>3.6158399999999999</v>
       </c>
       <c r="S6" s="13">
         <v>1.8</v>
       </c>
       <c r="T6" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>115.2</v>
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
       <c r="X6" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17" t="s">
-        <v>63</v>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" hidden="1">
-      <c r="A7" s="45">
+    <row r="7" spans="1:30" ht="30">
+      <c r="A7" s="41">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="73">
         <v>42549</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17">
         <v>5</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="F7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="H7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="17">
         <v>20</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <v>0.26</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="17">
         <v>0.10044</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="56">
+      <c r="L7" s="17"/>
+      <c r="M7" s="47">
         <v>1000</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="17">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="17">
         <v>2.4</v>
       </c>
-      <c r="P7" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>4.8211199999999996</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="20">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17">
         <v>10</v>
       </c>
-      <c r="Z7" s="20">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
+      <c r="Z7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>640</v>
       </c>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21" t="s">
-        <v>41</v>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="30" hidden="1">
-      <c r="A8" s="43">
+    <row r="8" spans="1:30" ht="30">
+      <c r="A8" s="39">
         <v>5</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="74">
         <v>42549</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E8" s="13">
         <v>5</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
@@ -3026,77 +4075,77 @@
         <v>2.0087999999999999</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="55">
+      <c r="M8" s="46">
         <v>20000</v>
       </c>
       <c r="N8" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="25">
         <v>2.4</v>
       </c>
-      <c r="P8" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P8" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>4.8211199999999996</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W8" s="13"/>
       <c r="X8" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="28">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
         <v>10</v>
       </c>
-      <c r="Z8" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
+      <c r="Z8" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>640</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
-      <c r="AD8" s="17"/>
+      <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="1:30" ht="30">
-      <c r="A9" s="43">
+      <c r="A9" s="39">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="74">
         <v>42551</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E9" s="13">
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I9" s="13">
         <v>20</v>
@@ -3110,75 +4159,75 @@
       <c r="L9" s="13">
         <v>1000</v>
       </c>
-      <c r="M9" s="55"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="78">
+      <c r="O9" s="61"/>
+      <c r="P9" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="61">
         <v>1</v>
       </c>
-      <c r="R9" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R9" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.0087999999999999</v>
       </c>
       <c r="S9" s="13">
         <v>1.8</v>
       </c>
       <c r="T9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>115.2</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17" t="s">
-        <v>49</v>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="30">
-      <c r="A10" s="43">
+      <c r="A10" s="39">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="74">
         <v>42551</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E10" s="13">
         <v>5</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I10" s="13">
         <v>20</v>
@@ -3192,75 +4241,75 @@
       <c r="L10" s="13">
         <v>3000</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="78">
+      <c r="O10" s="61"/>
+      <c r="P10" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="61">
         <v>1</v>
       </c>
-      <c r="R10" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R10" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>16</v>
       </c>
       <c r="S10" s="13">
         <v>1.8</v>
       </c>
       <c r="T10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>345.6</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17" t="s">
-        <v>49</v>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="30">
-      <c r="A11" s="43">
+      <c r="A11" s="39">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="74">
         <v>42551</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="13">
         <v>5</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I11" s="13">
         <v>20</v>
@@ -3274,77 +4323,77 @@
       <c r="L11" s="13">
         <v>1000</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O11" s="78">
+      <c r="O11" s="61">
         <v>0.6</v>
       </c>
-      <c r="P11" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P11" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>1.2</v>
       </c>
-      <c r="Q11" s="78">
+      <c r="Q11" s="61">
         <v>0.8</v>
       </c>
-      <c r="R11" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R11" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>1.6</v>
       </c>
       <c r="S11" s="13">
         <v>6</v>
       </c>
       <c r="T11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>384</v>
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17" t="s">
-        <v>54</v>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="30">
-      <c r="A12" s="46">
+      <c r="A12" s="39">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="74">
         <v>42551</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E12" s="13">
         <v>5</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I12" s="13">
         <v>20</v>
@@ -3358,7 +4407,7 @@
       <c r="L12" s="13">
         <v>1000</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="46">
         <v>1000</v>
       </c>
       <c r="N12" s="13">
@@ -3366,149 +4415,149 @@
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB12" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC12" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD12" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB12" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC12" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD12" s="15"/>
     </row>
     <row r="13" spans="1:30" ht="30">
-      <c r="A13" s="45">
+      <c r="A13" s="41">
         <v>10</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="75">
         <v>42551</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="59">
+      <c r="C13" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="49">
         <v>5</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="59">
+      <c r="F13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="49">
         <v>1</v>
       </c>
-      <c r="H13" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="49">
         <v>20</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="49">
         <v>6.8319999999999999</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="49">
         <v>0.1</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="49">
         <v>5000</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="51">
         <v>1000</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="43">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="61">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="61">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="59"/>
-      <c r="T13" s="61">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="61">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="59"/>
-      <c r="X13" s="61">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="61">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59" t="s">
-        <v>80</v>
+      <c r="O13" s="49"/>
+      <c r="P13" s="53">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="53">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="49"/>
+      <c r="T13" s="53">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="53">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="49"/>
+      <c r="X13" s="53">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="53">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="30">
-      <c r="A14" s="43">
+      <c r="A14" s="39">
         <v>11</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="74">
         <v>42551</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E14" s="13">
         <v>5</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G14" s="13">
         <v>1</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I14" s="13">
         <v>20</v>
@@ -3522,77 +4571,77 @@
       <c r="L14" s="13">
         <v>7000</v>
       </c>
-      <c r="M14" s="55"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O14" s="78">
+      <c r="O14" s="61">
         <v>1</v>
       </c>
-      <c r="P14" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P14" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>1.6</v>
       </c>
-      <c r="Q14" s="78">
+      <c r="Q14" s="61">
         <v>2</v>
       </c>
-      <c r="R14" s="78">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R14" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>3.2</v>
       </c>
       <c r="S14" s="13">
         <v>3</v>
       </c>
-      <c r="T14" s="31">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+      <c r="T14" s="27">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>1344</v>
       </c>
       <c r="U14" s="13">
         <v>4</v>
       </c>
       <c r="V14" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1792</v>
       </c>
       <c r="W14" s="13"/>
       <c r="X14" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
     </row>
     <row r="15" spans="1:30" ht="30">
-      <c r="A15" s="43">
+      <c r="A15" s="39">
         <v>12</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="74">
         <v>42551</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E15" s="13">
         <v>5</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I15" s="13">
         <v>20</v>
@@ -3606,79 +4655,79 @@
       <c r="L15" s="13">
         <v>7000</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="46">
         <v>1000</v>
       </c>
       <c r="N15" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="16">
         <v>1.4</v>
       </c>
-      <c r="P15" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P15" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.2399999999999998</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S15" s="13">
         <v>2.4</v>
       </c>
-      <c r="T15" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+      <c r="T15" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>1075.2</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="64">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="56">
         <v>60</v>
       </c>
-      <c r="AB15" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="17"/>
+      <c r="AB15" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="15"/>
     </row>
     <row r="16" spans="1:30" ht="30">
-      <c r="A16" s="43">
+      <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="74">
         <v>42551</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E16" s="13">
         <v>5</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G16" s="13">
         <v>1</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I16" s="13">
         <v>20</v>
@@ -3692,79 +4741,79 @@
       <c r="L16" s="13">
         <v>35000</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="46">
         <v>1000</v>
       </c>
       <c r="N16" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="16">
         <v>1.4</v>
       </c>
-      <c r="P16" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P16" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.2399999999999998</v>
       </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U16" s="13">
         <v>0.6</v>
       </c>
-      <c r="V16" s="31">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+      <c r="V16" s="27">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1344</v>
       </c>
       <c r="W16" s="13"/>
       <c r="X16" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="64">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="56">
         <v>73</v>
       </c>
-      <c r="AB16" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="17"/>
+      <c r="AB16" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="15"/>
     </row>
     <row r="17" spans="1:30" ht="30">
-      <c r="A17" s="43">
+      <c r="A17" s="39">
         <v>14</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="74">
         <v>42551</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E17" s="13">
         <v>5</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G17" s="13">
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I17" s="13">
         <v>20</v>
@@ -3778,87 +4827,87 @@
       <c r="L17" s="13">
         <v>20000</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="46">
         <v>1000</v>
       </c>
       <c r="N17" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="16">
         <v>1</v>
       </c>
-      <c r="P17" s="18">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P17" s="16">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="16">
         <v>1.2</v>
       </c>
-      <c r="R17" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R17" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.4</v>
       </c>
       <c r="S17" s="13">
         <v>0.6</v>
       </c>
       <c r="T17" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>768</v>
       </c>
       <c r="U17" s="13">
         <v>0.8</v>
       </c>
-      <c r="V17" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+      <c r="V17" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1024</v>
       </c>
       <c r="W17" s="13"/>
       <c r="X17" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="73">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="60">
         <v>49</v>
       </c>
-      <c r="AB17" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC17" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD17" s="73" t="s">
-        <v>89</v>
+      <c r="AB17" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" s="60" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="30">
-      <c r="A18" s="43">
+      <c r="A18" s="39">
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="74">
         <v>42551</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="13">
         <v>5</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G18" s="13">
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I18" s="13">
         <v>200</v>
@@ -3872,7 +4921,7 @@
       <c r="L18" s="13">
         <v>1800</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="46">
         <v>100</v>
       </c>
       <c r="N18" s="13">
@@ -3881,230 +4930,312 @@
       <c r="O18" s="13">
         <v>1.2</v>
       </c>
-      <c r="P18" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+      <c r="P18" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.4</v>
       </c>
       <c r="Q18" s="13">
         <v>1.4</v>
       </c>
-      <c r="R18" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+      <c r="R18" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.8</v>
       </c>
       <c r="S18" s="13">
         <v>0.8</v>
       </c>
-      <c r="T18" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+      <c r="T18" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>921.6</v>
       </c>
       <c r="U18" s="13">
         <v>1</v>
       </c>
-      <c r="V18" s="28">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+      <c r="V18" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1152</v>
       </c>
       <c r="W18" s="13"/>
       <c r="X18" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="73">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="60">
         <v>46</v>
       </c>
-      <c r="AB18" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC18" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD18" s="73" t="s">
-        <v>89</v>
+      <c r="AB18" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC18" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="60" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="30" hidden="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="13">
+    <row r="19" spans="1:30" ht="30">
+      <c r="A19" s="39">
+        <v>16</v>
+      </c>
+      <c r="B19" s="76">
+        <v>42551</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="58">
         <v>5</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
+      <c r="F19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="58">
+        <v>1</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="58">
+        <v>200</v>
+      </c>
+      <c r="J19" s="58">
+        <v>6.99</v>
+      </c>
+      <c r="K19" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="L19" s="58">
+        <v>1800</v>
+      </c>
+      <c r="M19" s="63">
+        <v>100</v>
+      </c>
+      <c r="N19" s="58">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
     </row>
-    <row r="20" spans="1:30" ht="30" hidden="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="13">
+    <row r="20" spans="1:30" ht="30">
+      <c r="A20" s="39">
+        <v>17</v>
+      </c>
+      <c r="B20" s="72">
+        <v>42551</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="14">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
+      <c r="F20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>7.0270000000000001</v>
+      </c>
+      <c r="K20" s="15">
+        <v>2.0087999999999999</v>
+      </c>
+      <c r="L20" s="15">
+        <v>20000</v>
+      </c>
+      <c r="M20" s="64">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="13">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="P20" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>1.2052799999999999</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="R20" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>1.60704</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15"/>
+      <c r="V20" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="15"/>
+      <c r="X20" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="60">
+        <v>42</v>
+      </c>
+      <c r="AB20" s="60">
+        <v>80</v>
+      </c>
+      <c r="AC20" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD20" s="60" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" ht="30" hidden="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="13">
+    <row r="21" spans="1:30" ht="30">
+      <c r="A21" s="39">
+        <v>18</v>
+      </c>
+      <c r="B21" s="72">
+        <v>42551</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14">
         <v>5</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
+      <c r="F21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
+        <v>7.1479999999999997</v>
+      </c>
+      <c r="K21" s="15">
+        <v>2.0087999999999999</v>
+      </c>
+      <c r="L21" s="15">
+        <v>20000</v>
+      </c>
+      <c r="M21" s="64">
+        <v>20000</v>
+      </c>
+      <c r="N21" s="13">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="O21" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="66">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0.60263999999999995</v>
+      </c>
+      <c r="Q21" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="R21" s="66">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0.80352000000000001</v>
+      </c>
+      <c r="S21" s="15"/>
+      <c r="T21" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="15"/>
+      <c r="X21" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="42">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="1:30" ht="30" hidden="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:30" ht="30">
+      <c r="A22" s="39"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E22" s="13">
         <v>5</v>
@@ -4116,49 +5247,55 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="55"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q22" s="13"/>
       <c r="R22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
     </row>
-    <row r="23" spans="1:30" hidden="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+    <row r="23" spans="1:30" ht="30">
+      <c r="A23" s="39"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13">
+        <v>5</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -4166,49 +5303,55 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="55"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
     </row>
-    <row r="24" spans="1:30" hidden="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+    <row r="24" spans="1:30" ht="30">
+      <c r="A24" s="39"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13">
+        <v>5</v>
+      </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -4216,49 +5359,55 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="55"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U24" s="13"/>
       <c r="V24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
     </row>
-    <row r="25" spans="1:30" hidden="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+    <row r="25" spans="1:30" ht="30">
+      <c r="A25" s="39"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -4266,46 +5415,46 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="55"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S25" s="13"/>
       <c r="T25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U25" s="13"/>
       <c r="V25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W25" s="13"/>
       <c r="X25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
     </row>
-    <row r="26" spans="1:30" hidden="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="14"/>
+    <row r="26" spans="1:30">
+      <c r="A26" s="39"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -4316,46 +5465,46 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="55"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U26" s="13"/>
       <c r="V26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W26" s="13"/>
       <c r="X26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
     </row>
-    <row r="27" spans="1:30" hidden="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="14"/>
+    <row r="27" spans="1:30">
+      <c r="A27" s="39"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -4366,46 +5515,46 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="55"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q27" s="13"/>
       <c r="R27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S27" s="13"/>
       <c r="T27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U27" s="13"/>
       <c r="V27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W27" s="13"/>
       <c r="X27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
     </row>
-    <row r="28" spans="1:30" hidden="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="14"/>
+    <row r="28" spans="1:30">
+      <c r="A28" s="39"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -4416,46 +5565,46 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="55"/>
+      <c r="M28" s="46"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q28" s="13"/>
       <c r="R28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S28" s="13"/>
       <c r="T28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U28" s="13"/>
       <c r="V28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W28" s="13"/>
       <c r="X28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
     </row>
-    <row r="29" spans="1:30" hidden="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="13"/>
+    <row r="29" spans="1:30">
+      <c r="A29" s="39"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -4466,46 +5615,46 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="55"/>
+      <c r="M29" s="46"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q29" s="13"/>
       <c r="R29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W29" s="13"/>
       <c r="X29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
     </row>
-    <row r="30" spans="1:30" hidden="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:30">
+      <c r="A30" s="40"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -4516,297 +5665,197 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="55"/>
+      <c r="M30" s="46"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="Q30" s="13"/>
       <c r="R30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S30" s="13"/>
       <c r="T30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U30" s="13"/>
       <c r="V30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W30" s="13"/>
       <c r="X30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
     </row>
-    <row r="31" spans="1:30" s="72" customFormat="1" ht="30">
-      <c r="A31" s="51">
-        <v>16</v>
-      </c>
-      <c r="B31" s="67">
-        <v>42551</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="68">
-        <v>5</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="68">
-        <v>1</v>
-      </c>
-      <c r="H31" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="68">
-        <v>200</v>
-      </c>
-      <c r="J31" s="68">
-        <v>6.99</v>
-      </c>
-      <c r="K31" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="L31" s="68">
-        <v>1800</v>
-      </c>
-      <c r="M31" s="69">
-        <v>100</v>
-      </c>
-      <c r="N31" s="70">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
+    <row r="31" spans="1:30" s="59" customFormat="1">
+      <c r="A31" s="40"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
     </row>
-    <row r="32" spans="1:30" ht="30">
-      <c r="A32" s="51">
-        <v>17</v>
-      </c>
-      <c r="B32" s="50">
-        <v>42551</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="47">
-        <v>5</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="47">
-        <v>1</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="47">
-        <v>1</v>
-      </c>
-      <c r="J32" s="47">
-        <v>7.0270000000000001</v>
-      </c>
-      <c r="K32" s="39">
-        <v>2.0087999999999999</v>
-      </c>
-      <c r="L32" s="39">
-        <v>20000</v>
-      </c>
-      <c r="M32" s="49">
-        <v>1000</v>
-      </c>
-      <c r="N32" s="13">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="O32" s="39">
-        <v>0.6</v>
-      </c>
-      <c r="P32" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>1.2052799999999999</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="R32" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>1.60704</v>
-      </c>
-      <c r="S32" s="39"/>
-      <c r="T32" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="39"/>
-      <c r="V32" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="39"/>
-      <c r="X32" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="74">
-        <v>42</v>
-      </c>
-      <c r="AB32" s="74">
-        <v>80</v>
-      </c>
-      <c r="AC32" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD32" s="74" t="s">
-        <v>93</v>
-      </c>
+    <row r="32" spans="1:30">
+      <c r="A32" s="40"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
     </row>
-    <row r="33" spans="1:30" ht="30">
-      <c r="A33" s="51">
-        <v>18</v>
-      </c>
-      <c r="B33" s="50">
-        <v>42551</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="47">
-        <v>5</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="47">
-        <v>1</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="47">
-        <v>1</v>
-      </c>
-      <c r="J33" s="47">
-        <v>7.1479999999999997</v>
-      </c>
-      <c r="K33" s="39">
-        <v>2.0087999999999999</v>
-      </c>
-      <c r="L33" s="39">
-        <v>20000</v>
-      </c>
-      <c r="M33" s="49">
-        <v>20000</v>
-      </c>
-      <c r="N33" s="13">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="O33" s="76">
-        <v>0.3</v>
-      </c>
-      <c r="P33" s="77">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor]]</f>
-        <v>0.60263999999999995</v>
-      </c>
-      <c r="Q33" s="76">
-        <v>0.4</v>
-      </c>
-      <c r="R33" s="77">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot (pC)]]*Table2[[#This Row],[Dose factor2]]</f>
-        <v>0.80352000000000001</v>
-      </c>
-      <c r="S33" s="39"/>
-      <c r="T33" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor3]]</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="39"/>
-      <c r="V33" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line (μC/cm)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor4]]</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="39"/>
-      <c r="X33" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor5]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="48">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area (μC/cm^2)]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Dose factor6]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
+    <row r="33" spans="1:30">
+      <c r="A33" s="40"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
@@ -4864,61 +5913,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="48" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="C1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="24"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="A2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4930,19 +5979,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -4956,17 +6005,17 @@
     <row r="4" spans="1:14" ht="75">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3">
         <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4978,19 +6027,19 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>200</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5003,20 +6052,20 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -5147,8 +6196,8 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
